--- a/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
+++ b/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\263企业网盘\收到的共享\Sept 2020 - Jan 2021\Grade 2019\MilestoneCompletion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C7B42-1B80-46DE-AE31-769B6919E79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="506"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem3 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -253,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +468,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,7 +503,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -787,39 +793,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15" t="s">
         <v>72</v>
@@ -828,7 +834,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="14">
         <f ca="1">TODAY()</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -841,7 +847,7 @@
       </c>
       <c r="AD1">
         <f>ROUND(COUNTIF(F5:F52,"=completed")/44*100,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -861,7 +867,7 @@
       </c>
       <c r="AD2">
         <f>100-AD1</f>
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -877,7 +883,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -928,7 +934,9 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
@@ -945,7 +953,7 @@
       </c>
       <c r="N5" s="3">
         <f>ROUND(COUNTIF(F$5:F$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -962,7 +970,9 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
@@ -996,7 +1006,9 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1042,9 @@
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1078,9 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1097,7 @@
       </c>
       <c r="N9" s="3">
         <f>AVERAGE(N5:N8)</f>
-        <v>39.25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2006,7 +2022,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2025,7 +2041,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:J52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AC$1:$AC$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
+++ b/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\263企业网盘\收到的共享\Sept 2020 - Jan 2021\Grade 2019\MilestoneCompletion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C7B42-1B80-46DE-AE31-769B6919E79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B059BC81-0E41-439E-9202-ECE66D1D3DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>Zhou Bo</t>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Completed</t>
@@ -804,7 +808,7 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -834,7 +838,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="14">
         <f ca="1">TODAY()</f>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -989,7 +993,7 @@
       </c>
       <c r="N6" s="3">
         <f>ROUND(COUNTIF(G$5:G$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1097,7 +1101,7 @@
       </c>
       <c r="N9" s="3">
         <f>AVERAGE(N5:N8)</f>
-        <v>57</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1115,7 +1119,9 @@
         <v>15</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1146,9 @@
         <v>16</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">

--- a/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
+++ b/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2019\MilestoneCompletion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944F51D-B1D0-4B70-99CB-6A4B1E2BA4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7270" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sem3 Complete Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>Semester 3 Completion Status as on</t>
   </si>
@@ -250,12 +244,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +263,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +271,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -279,7 +279,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,12 +287,156 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,19 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,8 +467,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -427,13 +757,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -447,28 +1022,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -484,19 +1100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -509,8 +1119,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8684260" y="65405"/>
-          <a:ext cx="969645" cy="317500"/>
+          <a:off x="8679815" y="65405"/>
+          <a:ext cx="967105" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,49 +1384,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.33636363636364" customWidth="1"/>
+    <col min="3" max="3" width="19.4454545454545" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" customWidth="1"/>
-    <col min="6" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="49.5545454545455" customWidth="1"/>
+    <col min="6" max="10" width="10.8909090909091" customWidth="1"/>
+    <col min="11" max="11" width="5.33636363636364" customWidth="1"/>
+    <col min="12" max="12" width="5.55454545454545" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="19.8">
+    <row r="1" ht="18.5" spans="1:30">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44102</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="11"/>
+        <v>44116</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="12"/>
       <c r="AC1" t="s">
         <v>1</v>
       </c>
@@ -826,17 +1436,17 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="13"/>
       <c r="AC2" t="s">
         <v>2</v>
       </c>
@@ -845,1202 +1455,1211 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" ht="15" spans="1:14">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="13"/>
+      <c r="M4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="M5" s="13" t="s">
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="M5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <f>ROUND(COUNTIF(F$5:F$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
+    <row r="6" spans="1:14">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="M6" s="13" t="s">
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="M6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <f>ROUND(COUNTIF(G$5:G$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="M7" s="13" t="s">
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="M7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="9">
         <f>ROUND(COUNTIF(H$5:H$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:14">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="M8" s="13" t="s">
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="M8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="9">
         <f>ROUND(COUNTIF(I$5:I$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="M9" s="13" t="s">
+      <c r="F9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="M9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <f>AVERAGE(N5:N8)</f>
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="12"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8">
         <v>17</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8">
         <v>19</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8">
         <v>20</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="12"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8">
         <v>21</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="12"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8">
         <v>22</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8">
         <v>23</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8">
         <v>24</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8">
         <v>25</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8">
         <v>27</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8">
         <v>28</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8">
         <v>29</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7">
+      <c r="A34" s="5"/>
+      <c r="B34" s="8">
         <v>30</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8">
         <v>31</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8">
         <v>32</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7">
+      <c r="A37" s="5"/>
+      <c r="B37" s="8">
         <v>33</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="12"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7">
+      <c r="A38" s="5"/>
+      <c r="B38" s="8">
         <v>34</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="12"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8">
         <v>35</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="12"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="4"/>
-      <c r="B40" s="7">
+      <c r="A40" s="5"/>
+      <c r="B40" s="8">
         <v>36</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="12"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="4"/>
-      <c r="B41" s="7">
+      <c r="A41" s="5"/>
+      <c r="B41" s="8">
         <v>37</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="12"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7">
+      <c r="A42" s="5"/>
+      <c r="B42" s="8">
         <v>38</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="12"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7">
+      <c r="A43" s="5"/>
+      <c r="B43" s="8">
         <v>39</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="12"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7">
+      <c r="A44" s="5"/>
+      <c r="B44" s="8">
         <v>40</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="12"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8">
         <v>41</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="12"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7">
+      <c r="A46" s="5"/>
+      <c r="B46" s="8">
         <v>42</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="12"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8">
         <v>43</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="12"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7">
+      <c r="A48" s="5"/>
+      <c r="B48" s="8">
         <v>44</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="12"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8">
         <v>45</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="12"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4"/>
-      <c r="B50" s="7">
+      <c r="A50" s="5"/>
+      <c r="B50" s="8">
         <v>46</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="12"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="4"/>
-      <c r="B51" s="7">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8">
         <v>47</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="12"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="4"/>
-      <c r="B52" s="7">
+      <c r="A52" s="5"/>
+      <c r="B52" s="8">
         <v>48</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="12"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="14"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" ht="14.75" spans="1:11">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I11 J5:J11 F5:H11 F12:J52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I11 I12:I15 J5:J11 J12:J15 F5:H11 F12:H15 F16:J52">
       <formula1>$AC$1:$AC$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
+++ b/Grade 2019/MilestoneCompletion/Sem3_Java_Status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="75">
   <si>
     <t>Semester 3 Completion Status as on</t>
   </si>
@@ -292,11 +292,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,7 +316,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -324,16 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +341,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,30 +369,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +392,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,14 +415,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,15 +429,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,175 +469,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,28 +755,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,32 +821,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,31 +849,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +867,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,8 +1386,8 @@
   <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1419,7 +1413,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44116</v>
+        <v>44164</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1654,7 +1648,7 @@
       </c>
       <c r="N8" s="9">
         <f>ROUND(COUNTIF(I$5:I$52,"=Completed")/COUNTIF(J$5:J$52,"=Completed")*100,0)</f>
-        <v>138</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1692,7 +1686,7 @@
       </c>
       <c r="N9" s="9">
         <f>AVERAGE(N5:N8)</f>
-        <v>91</v>
+        <v>175.25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1862,7 +1856,9 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="13"/>
     </row>
@@ -1883,7 +1879,9 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="13"/>
     </row>
@@ -1904,7 +1902,9 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="13"/>
     </row>
@@ -1925,7 +1925,9 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="13"/>
     </row>
@@ -1946,7 +1948,9 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="13"/>
     </row>
@@ -1967,7 +1971,9 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="13"/>
     </row>
@@ -1988,7 +1994,9 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="13"/>
     </row>
@@ -2009,7 +2017,9 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="13"/>
     </row>
@@ -2030,7 +2040,9 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="13"/>
     </row>
@@ -2051,7 +2063,9 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="13"/>
     </row>
@@ -2072,7 +2086,9 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="13"/>
     </row>
@@ -2177,7 +2193,9 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="13"/>
     </row>
@@ -2198,7 +2216,9 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="13"/>
     </row>
@@ -2219,7 +2239,9 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="13"/>
     </row>
@@ -2240,7 +2262,9 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="13"/>
     </row>
@@ -2261,7 +2285,9 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="13"/>
     </row>
@@ -2282,7 +2308,9 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="13"/>
     </row>
@@ -2303,7 +2331,9 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="13"/>
     </row>
@@ -2450,7 +2480,9 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="13"/>
     </row>
@@ -2471,7 +2503,9 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="13"/>
     </row>
@@ -2492,7 +2526,9 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="13"/>
     </row>
@@ -2513,7 +2549,9 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="13"/>
     </row>
@@ -2534,7 +2572,9 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="13"/>
     </row>
@@ -2555,7 +2595,9 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="13"/>
     </row>
@@ -2576,7 +2618,9 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="13"/>
     </row>
@@ -2597,7 +2641,9 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="13"/>
     </row>
@@ -2618,7 +2664,9 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="13"/>
     </row>
@@ -2653,7 +2701,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I11 I12:I15 J5:J11 J12:J15 F5:H11 F12:H15 F16:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:H31 I31 J31 F32:H32 I32 J32 F37:H37 I37 J37 I5:I11 I12:I15 I16:I26 I33:I36 I44:I52 J5:J11 J12:J15 J16:J26 J33:J36 J44:J52 F5:H11 F12:H15 F16:H26 F44:H52 F33:H36 F38:J43 F27:J30">
       <formula1>$AC$1:$AC$2</formula1>
     </dataValidation>
   </dataValidations>
